--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleIncludeQuotePrefix.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleIncludeQuotePrefix.xlsx
@@ -557,9 +557,9 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="3.570625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="8.780625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="10.740625" style="1" customWidth="1"/>
+    <x:col min="1" max="2" width="3.550625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.270625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="11.070625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleIncludeQuotePrefix.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleIncludeQuotePrefix.xlsx
@@ -557,9 +557,9 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="3.550625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.270625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="11.070625" style="1" customWidth="1"/>
+    <x:col min="1" max="2" width="5.600625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.820625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="14.160625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleIncludeQuotePrefix.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleIncludeQuotePrefix.xlsx
@@ -557,9 +557,9 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="5.600625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.820625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="14.160625" style="1" customWidth="1"/>
+    <x:col min="1" max="2" width="5.790625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.320625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="14.770625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleIncludeQuotePrefix.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleIncludeQuotePrefix.xlsx
@@ -557,9 +557,9 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="5.790625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.320625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="14.770625" style="1" customWidth="1"/>
+    <x:col min="1" max="2" width="5.521159" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.612291" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="13.901844" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleIncludeQuotePrefix.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleIncludeQuotePrefix.xlsx
@@ -557,9 +557,9 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="3.960625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.340625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="12.730625" style="1" customWidth="1"/>
+    <x:col min="1" max="2" width="4.070625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.350625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="12.840625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleIncludeQuotePrefix.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleIncludeQuotePrefix.xlsx
@@ -563,7 +563,7 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
-      <x:c r="A1" s="0" t="n">
+      <x:c r="A1" s="0">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
@@ -577,7 +577,7 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="0">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
@@ -591,7 +591,7 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
@@ -605,7 +605,7 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
-      <x:c r="A4" s="0" t="n">
+      <x:c r="A4" s="0">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
@@ -619,7 +619,7 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
-      <x:c r="A5" s="0" t="n">
+      <x:c r="A5" s="0">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
@@ -633,7 +633,7 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="A6" s="0" t="n">
+      <x:c r="A6" s="0">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
@@ -647,7 +647,7 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
-      <x:c r="A7" s="0" t="n">
+      <x:c r="A7" s="0">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
@@ -661,7 +661,7 @@
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
-      <x:c r="A8" s="0" t="n">
+      <x:c r="A8" s="0">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
@@ -675,7 +675,7 @@
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
-      <x:c r="A9" s="0" t="n">
+      <x:c r="A9" s="0">
         <x:v>9</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
@@ -689,7 +689,7 @@
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
-      <x:c r="A10" s="0" t="n">
+      <x:c r="A10" s="0">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
@@ -703,7 +703,7 @@
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
-      <x:c r="A11" s="0" t="n">
+      <x:c r="A11" s="0">
         <x:v>11</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
@@ -717,7 +717,7 @@
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
-      <x:c r="A12" s="0" t="n">
+      <x:c r="A12" s="0">
         <x:v>12</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
@@ -731,7 +731,7 @@
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
-      <x:c r="A13" s="0" t="n">
+      <x:c r="A13" s="0">
         <x:v>13</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
@@ -745,7 +745,7 @@
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
-      <x:c r="A14" s="0" t="n">
+      <x:c r="A14" s="0">
         <x:v>14</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
@@ -759,7 +759,7 @@
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
-      <x:c r="A15" s="0" t="n">
+      <x:c r="A15" s="0">
         <x:v>15</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
@@ -773,7 +773,7 @@
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
-      <x:c r="A16" s="0" t="n">
+      <x:c r="A16" s="0">
         <x:v>16</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
@@ -787,7 +787,7 @@
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
-      <x:c r="A17" s="0" t="n">
+      <x:c r="A17" s="0">
         <x:v>17</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
@@ -801,7 +801,7 @@
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
-      <x:c r="A18" s="0" t="n">
+      <x:c r="A18" s="0">
         <x:v>18</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
@@ -815,7 +815,7 @@
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
-      <x:c r="A19" s="0" t="n">
+      <x:c r="A19" s="0">
         <x:v>19</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
@@ -829,7 +829,7 @@
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
-      <x:c r="A20" s="0" t="n">
+      <x:c r="A20" s="0">
         <x:v>20</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleIncludeQuotePrefix.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleIncludeQuotePrefix.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>1</x:t>
   </x:si>
@@ -557,9 +557,9 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="4.070625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.350625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="12.840625" style="1" customWidth="1"/>
+    <x:col min="1" max="2" width="2.996339" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.282054" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="11.710625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleIncludeQuotePrefix.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleIncludeQuotePrefix.xlsx
@@ -547,7 +547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Styles/StyleIncludeQuotePrefix.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/StyleIncludeQuotePrefix.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Style IncludeQuotePrefix" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Style IncludeQuotePrefix" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
